--- a/matlab_attempt/Excel problems/Images questions.xlsx
+++ b/matlab_attempt/Excel problems/Images questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68E210CF-68D4-4CD7-9C2D-DA352882844E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEAF8C25-04F6-4BAB-88D6-7715423D6FA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG2.1.1" sheetId="1" r:id="rId1"/>
@@ -3171,7 +3171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
@@ -42587,7 +42587,7 @@
       <c r="D157" s="26"/>
       <c r="E157" s="16"/>
     </row>
-    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A158" s="16"/>
       <c r="B158" s="4" t="s">
         <v>9</v>
@@ -42620,7 +42620,7 @@
       <c r="D160" s="33"/>
       <c r="E160" s="24"/>
     </row>
-    <row r="161" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>240</v>
       </c>
@@ -42865,7 +42865,7 @@
       <c r="D179" s="26"/>
       <c r="E179" s="16"/>
     </row>
-    <row r="180" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="4" t="s">
         <v>9</v>
@@ -42898,7 +42898,7 @@
       <c r="D182" s="33"/>
       <c r="E182" s="24"/>
     </row>
-    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>255</v>
       </c>
@@ -43169,7 +43169,7 @@
       <c r="D203" s="26"/>
       <c r="E203" s="16"/>
     </row>
-    <row r="204" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="4" t="s">
         <v>9</v>
@@ -43202,7 +43202,7 @@
       <c r="D206" s="33"/>
       <c r="E206" s="24"/>
     </row>
-    <row r="207" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>269</v>
       </c>
@@ -43473,7 +43473,7 @@
       <c r="D227" s="26"/>
       <c r="E227" s="16"/>
     </row>
-    <row r="228" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="16"/>
       <c r="B228" s="4" t="s">
         <v>9</v>
@@ -43506,7 +43506,7 @@
       <c r="D230" s="33"/>
       <c r="E230" s="24"/>
     </row>
-    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
         <v>275</v>
       </c>
@@ -43684,7 +43684,7 @@
       <c r="D244" s="26"/>
       <c r="E244" s="16"/>
     </row>
-    <row r="245" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A245" s="16"/>
       <c r="B245" s="4" t="s">
         <v>9</v>
@@ -43856,7 +43856,7 @@
       <c r="D258" s="26"/>
       <c r="E258" s="16"/>
     </row>
-    <row r="259" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="16"/>
       <c r="B259" s="4" t="s">
         <v>9</v>
@@ -43889,7 +43889,7 @@
       <c r="D261" s="33"/>
       <c r="E261" s="24"/>
     </row>
-    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="16" t="s">
         <v>659</v>
       </c>
@@ -44054,7 +44054,7 @@
       <c r="D274" s="26"/>
       <c r="E274" s="16"/>
     </row>
-    <row r="275" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A275" s="16"/>
       <c r="B275" s="4" t="s">
         <v>9</v>
@@ -44252,7 +44252,7 @@
       <c r="D290" s="26"/>
       <c r="E290" s="16"/>
     </row>
-    <row r="291" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A291" s="16"/>
       <c r="B291" s="4" t="s">
         <v>9</v>
@@ -44390,7 +44390,7 @@
       <c r="D302" s="26"/>
       <c r="E302" s="16"/>
     </row>
-    <row r="303" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B303" s="4" t="s">
         <v>9</v>
       </c>
@@ -44420,7 +44420,7 @@
       <c r="D305" s="33"/>
       <c r="E305" s="24"/>
     </row>
-    <row r="306" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
         <v>682</v>
       </c>
@@ -44587,7 +44587,7 @@
       <c r="D319" s="26"/>
       <c r="E319" s="16"/>
     </row>
-    <row r="320" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="B320" s="4" t="s">
         <v>9</v>
       </c>
@@ -47477,7 +47477,7 @@
       <c r="D12" s="49"/>
       <c r="E12" s="49"/>
     </row>
-    <row r="13" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>650</v>
       </c>
@@ -52445,7 +52445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="A225" sqref="A225:E254"/>
     </sheetView>
   </sheetViews>

--- a/matlab_attempt/Excel problems/Images questions.xlsx
+++ b/matlab_attempt/Excel problems/Images questions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEAF8C25-04F6-4BAB-88D6-7715423D6FA7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2605C57F-22DA-4394-9D92-29855382F676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG2.1.1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,15 @@
     <sheet name="CG2.3.2" sheetId="6" r:id="rId6"/>
     <sheet name="CG2.3.3" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -3171,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD255"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206:E230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47647,8 +47652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L440"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B420" sqref="B420:E440"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52445,8 +52450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225:E254"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matlab_attempt/Excel problems/Images questions.xlsx
+++ b/matlab_attempt/Excel problems/Images questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2605C57F-22DA-4394-9D92-29855382F676}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5031C6A2-EF5E-409F-B6EB-26FEBBCEB2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG2.1.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4200" uniqueCount="843">
   <si>
     <t>questionText</t>
   </si>
@@ -2074,13 +2074,7 @@
     <t>col8</t>
   </si>
   <si>
-    <t>sprintf('%.2f',20*rand)</t>
-  </si>
-  <si>
     <t>sprintf('%.2f',AA + rand*20+20)</t>
-  </si>
-  <si>
-    <t>sprintf('%.2f',2*rand)</t>
   </si>
   <si>
     <t>randi([2 10],1)</t>
@@ -2624,6 +2618,15 @@
   </si>
   <si>
     <t>if ~DO_ERROR, answer = ['(' answer ')|(''' answer ''')']; end</t>
+  </si>
+  <si>
+    <t>randi([6 6],1)</t>
+  </si>
+  <si>
+    <t>sprintf('%.2f',max(2*rand,0.01))</t>
+  </si>
+  <si>
+    <t>sprintf('%.2f',max(20*rand,0.01))</t>
   </si>
 </sst>
 </file>
@@ -3176,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="A206" sqref="A206:E230"/>
+    <sheetView topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="A178" sqref="A178:E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3286,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>538</v>
@@ -3619,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="66" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>538</v>
@@ -20147,7 +20150,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -20251,7 +20254,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -20532,7 +20535,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E83" s="3"/>
     </row>
@@ -20564,7 +20567,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C86" s="3" t="b">
         <v>1</v>
@@ -22403,8 +22406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFD142"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39993,7 +39996,7 @@
         <v>507</v>
       </c>
       <c r="D96" s="49" t="s">
-        <v>84</v>
+        <v>840</v>
       </c>
       <c r="E96" s="49"/>
     </row>
@@ -40603,8 +40606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E322"/>
   <sheetViews>
-    <sheetView topLeftCell="A131" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C316" sqref="C316"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43916,7 +43919,7 @@
         <v>166</v>
       </c>
       <c r="D263" s="25" t="s">
-        <v>660</v>
+        <v>842</v>
       </c>
       <c r="E263" s="16"/>
     </row>
@@ -43929,7 +43932,7 @@
         <v>168</v>
       </c>
       <c r="D264" s="25" t="s">
-        <v>662</v>
+        <v>841</v>
       </c>
       <c r="E264" s="16"/>
     </row>
@@ -43942,7 +43945,7 @@
         <v>220</v>
       </c>
       <c r="D265" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E265" s="16"/>
     </row>
@@ -43955,7 +43958,7 @@
         <v>14</v>
       </c>
       <c r="D266" s="26" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E266" s="16"/>
     </row>
@@ -44007,7 +44010,7 @@
         <v>3</v>
       </c>
       <c r="D270" s="27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E270" s="16"/>
     </row>
@@ -44020,7 +44023,7 @@
         <v>3</v>
       </c>
       <c r="D271" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E271" s="16" t="b">
         <v>1</v>
@@ -44094,13 +44097,13 @@
     </row>
     <row r="278" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="16" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B278" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="16"/>
@@ -44127,7 +44130,7 @@
         <v>166</v>
       </c>
       <c r="D280" s="25" t="s">
-        <v>660</v>
+        <v>842</v>
       </c>
       <c r="E280" s="16"/>
     </row>
@@ -44140,7 +44143,7 @@
         <v>168</v>
       </c>
       <c r="D281" s="25" t="s">
-        <v>662</v>
+        <v>841</v>
       </c>
       <c r="E281" s="16"/>
     </row>
@@ -44153,7 +44156,7 @@
         <v>220</v>
       </c>
       <c r="D282" s="25" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E282" s="16"/>
     </row>
@@ -44166,7 +44169,7 @@
         <v>14</v>
       </c>
       <c r="D283" s="26" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E283" s="16"/>
     </row>
@@ -44218,7 +44221,7 @@
         <v>3</v>
       </c>
       <c r="D287" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E287" s="16" t="b">
         <v>1</v>
@@ -44263,7 +44266,7 @@
         <v>9</v>
       </c>
       <c r="C291" s="23" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D291" s="26"/>
       <c r="E291" s="16"/>
@@ -44292,13 +44295,13 @@
     </row>
     <row r="294" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B294" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D294" s="26"/>
       <c r="E294" s="16"/>
@@ -44311,7 +44314,7 @@
         <v>166</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="E295" s="16"/>
     </row>
@@ -44323,7 +44326,7 @@
         <v>220</v>
       </c>
       <c r="D296" s="25" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E296" s="16"/>
     </row>
@@ -44332,10 +44335,10 @@
         <v>1</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D297" s="61" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="E297" s="16"/>
     </row>
@@ -44347,7 +44350,7 @@
         <v>3</v>
       </c>
       <c r="D298" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E298" s="16"/>
     </row>
@@ -44359,7 +44362,7 @@
         <v>3</v>
       </c>
       <c r="D299" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E299" s="16" t="b">
         <v>1</v>
@@ -44400,7 +44403,7 @@
         <v>9</v>
       </c>
       <c r="C303" s="23" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D303" s="26"/>
       <c r="E303" s="16"/>
@@ -44427,13 +44430,13 @@
     </row>
     <row r="306" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="17" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B306" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D306" s="26"/>
       <c r="E306" s="16"/>
@@ -44446,7 +44449,7 @@
         <v>166</v>
       </c>
       <c r="D307" s="25" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E307" s="16"/>
     </row>
@@ -44458,7 +44461,7 @@
         <v>220</v>
       </c>
       <c r="D308" s="25" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="E308" s="16"/>
     </row>
@@ -44470,7 +44473,7 @@
         <v>168</v>
       </c>
       <c r="D309" s="25" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E309" s="16"/>
     </row>
@@ -44479,10 +44482,10 @@
         <v>1</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D310" s="61" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="E310" s="16"/>
     </row>
@@ -44494,7 +44497,7 @@
         <v>316</v>
       </c>
       <c r="D311" s="27" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="E311" s="16"/>
     </row>
@@ -44506,7 +44509,7 @@
         <v>14</v>
       </c>
       <c r="D312" s="27" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E312" s="16"/>
     </row>
@@ -44530,7 +44533,7 @@
         <v>3</v>
       </c>
       <c r="D314" s="27" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="E314" s="16"/>
     </row>
@@ -44542,7 +44545,7 @@
         <v>3</v>
       </c>
       <c r="D315" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E315" s="16" t="b">
         <v>1</v>
@@ -44553,10 +44556,10 @@
         <v>4</v>
       </c>
       <c r="C316" s="67" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D316" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E316" s="16" t="b">
         <v>1</v>
@@ -44597,7 +44600,7 @@
         <v>9</v>
       </c>
       <c r="C320" s="23" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="16"/>
@@ -46732,13 +46735,13 @@
     </row>
     <row r="159" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B159" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C159" s="43" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -46746,7 +46749,7 @@
         <v>1</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D160" s="25" t="s">
         <v>473</v>
@@ -46760,7 +46763,7 @@
         <v>166</v>
       </c>
       <c r="D161" s="25" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.25">
@@ -46771,7 +46774,7 @@
         <v>220</v>
       </c>
       <c r="D162" s="26" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.25">
@@ -46793,7 +46796,7 @@
         <v>2</v>
       </c>
       <c r="D164" s="35" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.25">
@@ -46801,10 +46804,10 @@
         <v>1</v>
       </c>
       <c r="C165" s="43" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D165" s="35" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.25">
@@ -46812,10 +46815,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="43" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D166" s="35" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.25">
@@ -46823,10 +46826,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="43" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D167" s="35" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.25">
@@ -46837,7 +46840,7 @@
         <v>335</v>
       </c>
       <c r="D168" s="35" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.25">
@@ -46903,7 +46906,7 @@
         <v>92</v>
       </c>
       <c r="D174" s="35" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="E174" t="b">
         <v>1</v>
@@ -46985,7 +46988,7 @@
         <v>9</v>
       </c>
       <c r="C182" s="62" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
@@ -46998,13 +47001,13 @@
     </row>
     <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B184" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C184" s="43" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -47012,7 +47015,7 @@
         <v>1</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D185" s="25" t="s">
         <v>473</v>
@@ -47034,10 +47037,10 @@
         <v>1</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D187" s="26" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
@@ -47045,10 +47048,10 @@
         <v>1</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D188" s="35" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
@@ -47056,10 +47059,10 @@
         <v>1</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D189" s="35" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
@@ -47067,10 +47070,10 @@
         <v>1</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D190" s="35" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
@@ -47078,10 +47081,10 @@
         <v>1</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D191" s="35" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
@@ -47089,10 +47092,10 @@
         <v>1</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D192" s="26" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -47100,10 +47103,10 @@
         <v>1</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D193" s="35" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -47111,10 +47114,10 @@
         <v>1</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D194" s="35" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
@@ -47122,10 +47125,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D195" s="35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -47133,10 +47136,10 @@
         <v>1</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D196" s="64" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -47147,7 +47150,7 @@
         <v>335</v>
       </c>
       <c r="D197" s="35" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
@@ -47158,7 +47161,7 @@
         <v>2</v>
       </c>
       <c r="D198" s="65" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -47169,7 +47172,7 @@
         <v>92</v>
       </c>
       <c r="D199" s="35" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -47180,7 +47183,7 @@
         <v>94</v>
       </c>
       <c r="D200" s="35" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -47191,7 +47194,7 @@
         <v>96</v>
       </c>
       <c r="D201" s="35" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -47202,7 +47205,7 @@
         <v>100</v>
       </c>
       <c r="D202" s="35" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -47213,7 +47216,7 @@
         <v>92</v>
       </c>
       <c r="D203" s="35" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E203" t="b">
         <v>1</v>
@@ -47301,7 +47304,7 @@
         <v>9</v>
       </c>
       <c r="C211" s="62" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -47790,7 +47793,7 @@
         <v>92</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E10" s="21" t="b">
         <v>1</v>
@@ -48027,7 +48030,7 @@
         <v>92</v>
       </c>
       <c r="D31" s="37" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -48238,7 +48241,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -48395,7 +48398,7 @@
         <v>92</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E64" s="21" t="b">
         <v>1</v>
@@ -48717,7 +48720,7 @@
         <v>45</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E93" t="s">
         <v>355</v>
@@ -48731,7 +48734,7 @@
         <v>46</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E94" t="s">
         <v>356</v>
@@ -48745,7 +48748,7 @@
         <v>90</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E95" t="s">
         <v>357</v>
@@ -48759,7 +48762,7 @@
         <v>89</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E96" t="s">
         <v>358</v>
@@ -48773,7 +48776,7 @@
         <v>361</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E97" t="s">
         <v>359</v>
@@ -48787,7 +48790,7 @@
         <v>362</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E98" t="s">
         <v>360</v>
@@ -48947,7 +48950,7 @@
         <v>3</v>
       </c>
       <c r="D113" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E113" t="b">
         <v>1</v>
@@ -49144,7 +49147,7 @@
         <v>3</v>
       </c>
       <c r="D132" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="E132" t="b">
         <v>1</v>
@@ -49352,7 +49355,7 @@
         <v>92</v>
       </c>
       <c r="D152" s="37" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E152" t="b">
         <v>1</v>
@@ -49571,7 +49574,7 @@
         <v>3</v>
       </c>
       <c r="D172" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E172" t="b">
         <v>1</v>
@@ -49741,7 +49744,7 @@
         <v>92</v>
       </c>
       <c r="D187" s="37" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E187" s="21" t="b">
         <v>1</v>
@@ -50042,7 +50045,7 @@
         <v>92</v>
       </c>
       <c r="D214" s="37" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E214" t="b">
         <v>1</v>
@@ -50409,7 +50412,7 @@
         <v>101</v>
       </c>
       <c r="D247" s="37" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E247" t="b">
         <v>1</v>
@@ -50636,7 +50639,7 @@
         <v>3</v>
       </c>
       <c r="D268" s="37" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E268" s="21" t="b">
         <v>1</v>
@@ -50704,13 +50707,13 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B275" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C275" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -50751,10 +50754,10 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D279" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -50765,7 +50768,7 @@
         <v>2</v>
       </c>
       <c r="D280" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -50776,7 +50779,7 @@
         <v>13</v>
       </c>
       <c r="D281" s="35" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -50787,7 +50790,7 @@
         <v>3</v>
       </c>
       <c r="D282" s="35" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -50798,7 +50801,7 @@
         <v>2</v>
       </c>
       <c r="D283" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -50806,10 +50809,10 @@
         <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D284" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -50820,7 +50823,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E285" t="b">
         <v>1</v>
@@ -50863,7 +50866,7 @@
         <v>9</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -50878,13 +50881,13 @@
     </row>
     <row r="292" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B292" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -50917,7 +50920,7 @@
         <v>317</v>
       </c>
       <c r="D295" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -50925,10 +50928,10 @@
         <v>1</v>
       </c>
       <c r="C296" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D296" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -50939,7 +50942,7 @@
         <v>2</v>
       </c>
       <c r="D297" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -50950,7 +50953,7 @@
         <v>13</v>
       </c>
       <c r="D298" s="35" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -50961,7 +50964,7 @@
         <v>3</v>
       </c>
       <c r="D299" s="35" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -50972,7 +50975,7 @@
         <v>2</v>
       </c>
       <c r="D300" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -50980,10 +50983,10 @@
         <v>1</v>
       </c>
       <c r="C301" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D301" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -50994,7 +50997,7 @@
         <v>3</v>
       </c>
       <c r="D302" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E302" t="b">
         <v>1</v>
@@ -51037,7 +51040,7 @@
         <v>9</v>
       </c>
       <c r="C307" s="10" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51052,13 +51055,13 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B309" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C309" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -51080,7 +51083,7 @@
         <v>316</v>
       </c>
       <c r="D311" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -51091,7 +51094,7 @@
         <v>317</v>
       </c>
       <c r="D312" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -51102,7 +51105,7 @@
         <v>2</v>
       </c>
       <c r="D313" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -51113,7 +51116,7 @@
         <v>13</v>
       </c>
       <c r="D314" s="35" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -51124,7 +51127,7 @@
         <v>3</v>
       </c>
       <c r="D315" s="35" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -51135,7 +51138,7 @@
         <v>3</v>
       </c>
       <c r="D316" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="E316" t="b">
         <v>1</v>
@@ -51178,7 +51181,7 @@
         <v>9</v>
       </c>
       <c r="C321" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51193,13 +51196,13 @@
     </row>
     <row r="323" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B323" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C323" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -51221,7 +51224,7 @@
         <v>316</v>
       </c>
       <c r="D325" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -51232,7 +51235,7 @@
         <v>317</v>
       </c>
       <c r="D326" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -51240,10 +51243,10 @@
         <v>1</v>
       </c>
       <c r="C327" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D327" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -51254,7 +51257,7 @@
         <v>2</v>
       </c>
       <c r="D328" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -51265,7 +51268,7 @@
         <v>13</v>
       </c>
       <c r="D329" s="35" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -51276,7 +51279,7 @@
         <v>3</v>
       </c>
       <c r="D330" s="35" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -51287,7 +51290,7 @@
         <v>3</v>
       </c>
       <c r="D331" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="E331" t="b">
         <v>1</v>
@@ -51330,7 +51333,7 @@
         <v>9</v>
       </c>
       <c r="C336" s="10" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51345,13 +51348,13 @@
     </row>
     <row r="338" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B338" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C338" s="10" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -51362,7 +51365,7 @@
         <v>166</v>
       </c>
       <c r="D339" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -51370,7 +51373,7 @@
         <v>1</v>
       </c>
       <c r="C340" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D340" t="s">
         <v>508</v>
@@ -51381,10 +51384,10 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D341" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -51392,10 +51395,10 @@
         <v>1</v>
       </c>
       <c r="C342" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D342" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -51406,7 +51409,7 @@
         <v>335</v>
       </c>
       <c r="D343" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -51414,10 +51417,10 @@
         <v>1</v>
       </c>
       <c r="C344" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D344" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -51428,7 +51431,7 @@
         <v>92</v>
       </c>
       <c r="D345" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -51439,7 +51442,7 @@
         <v>94</v>
       </c>
       <c r="D346" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -51450,7 +51453,7 @@
         <v>96</v>
       </c>
       <c r="D347" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -51461,7 +51464,7 @@
         <v>100</v>
       </c>
       <c r="D348" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -51472,7 +51475,7 @@
         <v>101</v>
       </c>
       <c r="D349" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -51483,7 +51486,7 @@
         <v>92</v>
       </c>
       <c r="D350" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E350" t="b">
         <v>1</v>
@@ -51562,7 +51565,7 @@
         <v>9</v>
       </c>
       <c r="C358" s="10" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51575,13 +51578,13 @@
     </row>
     <row r="360" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="B360" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C360" s="10" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -51592,7 +51595,7 @@
         <v>166</v>
       </c>
       <c r="D361" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -51600,7 +51603,7 @@
         <v>1</v>
       </c>
       <c r="C362" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D362" t="s">
         <v>508</v>
@@ -51611,10 +51614,10 @@
         <v>1</v>
       </c>
       <c r="C363" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D363" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -51622,10 +51625,10 @@
         <v>1</v>
       </c>
       <c r="C364" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D364" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -51636,7 +51639,7 @@
         <v>335</v>
       </c>
       <c r="D365" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -51644,10 +51647,10 @@
         <v>1</v>
       </c>
       <c r="C366" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D366" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -51658,7 +51661,7 @@
         <v>92</v>
       </c>
       <c r="D367" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -51669,7 +51672,7 @@
         <v>94</v>
       </c>
       <c r="D368" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -51680,7 +51683,7 @@
         <v>96</v>
       </c>
       <c r="D369" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -51691,7 +51694,7 @@
         <v>100</v>
       </c>
       <c r="D370" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -51702,7 +51705,7 @@
         <v>101</v>
       </c>
       <c r="D371" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -51713,7 +51716,7 @@
         <v>2</v>
       </c>
       <c r="D372" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -51721,10 +51724,10 @@
         <v>1</v>
       </c>
       <c r="C373" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D373" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -51735,7 +51738,7 @@
         <v>92</v>
       </c>
       <c r="D374" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E374" t="b">
         <v>1</v>
@@ -51814,7 +51817,7 @@
         <v>9</v>
       </c>
       <c r="C382" s="10" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -51827,13 +51830,13 @@
     </row>
     <row r="384" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B384" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C384" s="10" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="385" spans="2:5" x14ac:dyDescent="0.25">
@@ -51844,7 +51847,7 @@
         <v>166</v>
       </c>
       <c r="D385" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="386" spans="2:5" x14ac:dyDescent="0.25">
@@ -51852,7 +51855,7 @@
         <v>1</v>
       </c>
       <c r="C386" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D386" t="s">
         <v>32</v>
@@ -51863,10 +51866,10 @@
         <v>1</v>
       </c>
       <c r="C387" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D387" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="388" spans="2:5" x14ac:dyDescent="0.25">
@@ -51874,10 +51877,10 @@
         <v>1</v>
       </c>
       <c r="C388" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D388" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="389" spans="2:5" x14ac:dyDescent="0.25">
@@ -51888,7 +51891,7 @@
         <v>335</v>
       </c>
       <c r="D389" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="390" spans="2:5" x14ac:dyDescent="0.25">
@@ -51896,10 +51899,10 @@
         <v>1</v>
       </c>
       <c r="C390" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D390" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="391" spans="2:5" x14ac:dyDescent="0.25">
@@ -51910,7 +51913,7 @@
         <v>2</v>
       </c>
       <c r="D391" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="392" spans="2:5" x14ac:dyDescent="0.25">
@@ -51918,10 +51921,10 @@
         <v>1</v>
       </c>
       <c r="C392" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D392" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="393" spans="2:5" x14ac:dyDescent="0.25">
@@ -51932,7 +51935,7 @@
         <v>92</v>
       </c>
       <c r="D393" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="394" spans="2:5" x14ac:dyDescent="0.25">
@@ -51943,7 +51946,7 @@
         <v>94</v>
       </c>
       <c r="D394" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="395" spans="2:5" x14ac:dyDescent="0.25">
@@ -51954,7 +51957,7 @@
         <v>96</v>
       </c>
       <c r="D395" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="396" spans="2:5" x14ac:dyDescent="0.25">
@@ -51965,7 +51968,7 @@
         <v>100</v>
       </c>
       <c r="D396" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="397" spans="2:5" x14ac:dyDescent="0.25">
@@ -51976,7 +51979,7 @@
         <v>101</v>
       </c>
       <c r="D397" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="398" spans="2:5" x14ac:dyDescent="0.25">
@@ -51987,7 +51990,7 @@
         <v>2</v>
       </c>
       <c r="D398" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="399" spans="2:5" x14ac:dyDescent="0.25">
@@ -51995,10 +51998,10 @@
         <v>1</v>
       </c>
       <c r="C399" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D399" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="400" spans="2:5" x14ac:dyDescent="0.25">
@@ -52053,7 +52056,7 @@
         <v>101</v>
       </c>
       <c r="D404" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E404" t="b">
         <v>1</v>
@@ -52088,7 +52091,7 @@
         <v>9</v>
       </c>
       <c r="C408" s="10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="409" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -52101,13 +52104,13 @@
     </row>
     <row r="410" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B410" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C410" s="10" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
@@ -52118,7 +52121,7 @@
         <v>166</v>
       </c>
       <c r="D411" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
@@ -52126,7 +52129,7 @@
         <v>1</v>
       </c>
       <c r="C412" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D412" t="s">
         <v>508</v>
@@ -52137,10 +52140,10 @@
         <v>1</v>
       </c>
       <c r="C413" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D413" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
@@ -52148,10 +52151,10 @@
         <v>1</v>
       </c>
       <c r="C414" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D414" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
@@ -52162,7 +52165,7 @@
         <v>335</v>
       </c>
       <c r="D415" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
@@ -52170,10 +52173,10 @@
         <v>1</v>
       </c>
       <c r="C416" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D416" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="417" spans="2:5" x14ac:dyDescent="0.25">
@@ -52184,7 +52187,7 @@
         <v>2</v>
       </c>
       <c r="D417" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="418" spans="2:5" x14ac:dyDescent="0.25">
@@ -52195,7 +52198,7 @@
         <v>2</v>
       </c>
       <c r="D418" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="419" spans="2:5" x14ac:dyDescent="0.25">
@@ -52203,10 +52206,10 @@
         <v>1</v>
       </c>
       <c r="C419" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D419" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="420" spans="2:5" x14ac:dyDescent="0.25">
@@ -52338,7 +52341,7 @@
         <v>92</v>
       </c>
       <c r="D431" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E431" t="s">
         <v>563</v>
@@ -52352,7 +52355,7 @@
         <v>94</v>
       </c>
       <c r="D432" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E432" t="s">
         <v>564</v>
@@ -52366,7 +52369,7 @@
         <v>96</v>
       </c>
       <c r="D433" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E433" t="s">
         <v>565</v>
@@ -52380,7 +52383,7 @@
         <v>100</v>
       </c>
       <c r="D434" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E434" t="s">
         <v>566</v>
@@ -52394,7 +52397,7 @@
         <v>101</v>
       </c>
       <c r="D435" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="E435" t="s">
         <v>567</v>
@@ -52421,7 +52424,7 @@
         <v>9</v>
       </c>
       <c r="C438" s="7" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="439" spans="2:5" x14ac:dyDescent="0.25">
@@ -52646,7 +52649,7 @@
         <v>92</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -52878,7 +52881,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -53055,7 +53058,7 @@
         <v>3</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -53243,7 +53246,7 @@
         <v>3</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -53431,7 +53434,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -53630,7 +53633,7 @@
         <v>3</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="E111" t="b">
         <v>1</v>
@@ -53885,7 +53888,7 @@
         <v>3</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E135" s="21" t="b">
         <v>1</v>
@@ -54223,7 +54226,7 @@
         <v>92</v>
       </c>
       <c r="D166" s="37" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E166" t="b">
         <v>1</v>
@@ -54543,7 +54546,7 @@
         <v>92</v>
       </c>
       <c r="D196" s="37" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E196" t="b">
         <v>1</v>
@@ -54648,13 +54651,13 @@
     </row>
     <row r="207" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B207" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="D207"/>
     </row>
@@ -54666,7 +54669,7 @@
         <v>166</v>
       </c>
       <c r="D208" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.25">
@@ -54674,7 +54677,7 @@
         <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D209" t="s">
         <v>257</v>
@@ -54685,10 +54688,10 @@
         <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D210" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.25">
@@ -54696,10 +54699,10 @@
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D211" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.25">
@@ -54710,7 +54713,7 @@
         <v>453</v>
       </c>
       <c r="D212" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.25">
@@ -54743,7 +54746,7 @@
         <v>3</v>
       </c>
       <c r="D215" s="35" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.25">
@@ -54754,7 +54757,7 @@
         <v>454</v>
       </c>
       <c r="D216" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.25">
@@ -54765,7 +54768,7 @@
         <v>483</v>
       </c>
       <c r="D217" s="35" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.25">
@@ -54776,7 +54779,7 @@
         <v>3</v>
       </c>
       <c r="D218" s="37" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E218" s="21" t="b">
         <v>1</v>
@@ -54827,7 +54830,7 @@
         <v>9</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D223" s="18"/>
       <c r="E223" s="16"/>
@@ -54844,13 +54847,13 @@
     </row>
     <row r="225" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B225" s="40" t="s">
         <v>0</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -54861,7 +54864,7 @@
         <v>383</v>
       </c>
       <c r="D226" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -54891,10 +54894,10 @@
         <v>1</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="D229" s="35" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -54905,7 +54908,7 @@
         <v>427</v>
       </c>
       <c r="D230" s="35" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -54916,7 +54919,7 @@
         <v>428</v>
       </c>
       <c r="D231" s="35" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -54927,7 +54930,7 @@
         <v>2</v>
       </c>
       <c r="D232" s="35" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -54935,10 +54938,10 @@
         <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D233" s="35" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -55070,7 +55073,7 @@
         <v>92</v>
       </c>
       <c r="D245" s="37" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E245" t="s">
         <v>563</v>
@@ -55084,7 +55087,7 @@
         <v>94</v>
       </c>
       <c r="D246" s="37" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E246" t="s">
         <v>564</v>
@@ -55098,7 +55101,7 @@
         <v>96</v>
       </c>
       <c r="D247" s="37" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E247" t="s">
         <v>565</v>
@@ -55112,7 +55115,7 @@
         <v>100</v>
       </c>
       <c r="D248" s="37" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E248" t="s">
         <v>566</v>
@@ -55126,7 +55129,7 @@
         <v>101</v>
       </c>
       <c r="D249" s="37" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E249" t="s">
         <v>567</v>
@@ -55155,7 +55158,7 @@
         <v>9</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D252"/>
     </row>

--- a/matlab_attempt/Excel problems/Images questions.xlsx
+++ b/matlab_attempt/Excel problems/Images questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Documents\GitHub\QMB-Problem-Maker\matlab_attempt\Excel problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5031C6A2-EF5E-409F-B6EB-26FEBBCEB2D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB07124-2572-4FDC-9CA8-860613A7D939}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CG2.1.1" sheetId="1" r:id="rId1"/>
@@ -3179,7 +3179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XFD255"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
       <selection activeCell="A178" sqref="A178:E255"/>
     </sheetView>
   </sheetViews>
@@ -40606,7 +40606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A235" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E287" sqref="E287"/>
     </sheetView>
   </sheetViews>
